--- a/Backlog e Sprints.xlsx
+++ b/Backlog e Sprints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\010425631\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFECCC50-A12E-45E5-BF18-CA4704326554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68391C0C-1E80-4126-AAEA-8D797304C94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{376274EA-1D76-4A37-856D-FC51C86106BE}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{376274EA-1D76-4A37-856D-FC51C86106BE}"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="6" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>Keren Suzana Bernal Moreno</t>
   </si>
   <si>
-    <t>Gustavo Salmazo</t>
-  </si>
-  <si>
     <t>Backlog</t>
   </si>
   <si>
@@ -227,6 +224,9 @@
   </si>
   <si>
     <t>Testar a API e mover para produção</t>
+  </si>
+  <si>
+    <t>Antonio de Oliveira Dias, Dierison Barbosa de Sousa, Gustavo Salmazo dos Santos, Ricardo Magalhães Pita, Willian Lopes da Silva</t>
   </si>
 </sst>
 </file>
@@ -481,6 +481,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -492,35 +519,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -539,6 +539,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -546,7 +547,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -867,131 +867,127 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:J4"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="65.578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="19">
+      <c r="B5" s="16"/>
+      <c r="C5" s="28">
         <v>45172</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="19">
+      <c r="B6" s="16"/>
+      <c r="C6" s="28">
         <v>45235</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="C5:J5"/>
@@ -1000,6 +996,11 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1023,7 +1024,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="31" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -1039,206 +1040,206 @@
     </row>
     <row r="3" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="12">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>3</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="9">
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1268,137 +1269,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="37" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="17" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="37" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="38" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="28"/>
+      <c r="A6" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="21"/>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="18"/>
+      <c r="A7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="27"/>
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="23"/>
+      <c r="A8" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="30"/>
       <c r="C8" s="14">
         <v>3</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1435,153 +1436,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="A1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="19" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="28">
+        <v>45203</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="19">
-        <v>45203</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="26"/>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="8" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="22"/>
+      <c r="A8" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="29"/>
       <c r="C8" s="9">
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A1:G1"/>
@@ -1589,13 +1597,6 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1617,137 +1618,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="28">
+        <v>45203</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="19">
-        <v>45203</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="17"/>
+      <c r="A7" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="26"/>
       <c r="C7" s="1">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="22"/>
+      <c r="A8" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="29"/>
       <c r="C8" s="9">
         <v>3</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1785,116 +1786,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="37" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="19">
+      <c r="B3" s="38"/>
+      <c r="C3" s="28">
         <v>45143</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="44"/>
       <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="9">
         <v>1</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1915,15 +1916,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010058C89444CE9B1B47BDC5B74797E64058" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c0827d270c46cd87f43d6bc8b1e1fcf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a6563e0f-58a1-477f-b2e6-2887ade892f4" xmlns:ns4="7cfa3709-ef81-40ed-8567-ee8830f781ab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d40ba529f971d90fdcff9f9299b9e837" ns3:_="" ns4:_="">
     <xsd:import namespace="a6563e0f-58a1-477f-b2e6-2887ade892f4"/>
@@ -2114,6 +2106,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2123,14 +2124,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE907F60-560E-4B69-8B90-000AD9FEB889}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0E14A5C-8FD6-4318-ABED-FA11796E47D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2145,6 +2138,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE907F60-560E-4B69-8B90-000AD9FEB889}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
